--- a/data/attendance.xlsx
+++ b/data/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,140 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Only</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TestUser</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:15:55</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00:15:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>rivith</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:35:15</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00:35:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ranjuna</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:38:45</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>00:38:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:53:19</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>00:53:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TestUser2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:58:13</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>00:58:13.830415</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kamal</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-05 01:01:55</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
